--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>1181.725008420262</v>
+        <v>11.15096585469833</v>
       </c>
       <c r="R2">
-        <v>10635.52507578236</v>
+        <v>100.358692692285</v>
       </c>
       <c r="S2">
-        <v>0.3745735190809131</v>
+        <v>0.01249014952768243</v>
       </c>
       <c r="T2">
-        <v>0.3745735190809132</v>
+        <v>0.01249014952768243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>17.33380451521333</v>
+        <v>0.3729991443726667</v>
       </c>
       <c r="R3">
-        <v>156.00424063692</v>
+        <v>3.356992299354</v>
       </c>
       <c r="S3">
-        <v>0.005494327453561872</v>
+        <v>0.0004177947585544147</v>
       </c>
       <c r="T3">
-        <v>0.005494327453561873</v>
+        <v>0.0004177947585544147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>560.2976700223355</v>
+        <v>12.05681945523878</v>
       </c>
       <c r="R4">
-        <v>5042.67903020102</v>
+        <v>108.511375097149</v>
       </c>
       <c r="S4">
-        <v>0.1775985686159436</v>
+        <v>0.013504792301086</v>
       </c>
       <c r="T4">
-        <v>0.1775985686159437</v>
+        <v>0.013504792301086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>528.9606018581179</v>
+        <v>231.955911088215</v>
       </c>
       <c r="R5">
-        <v>4760.645416723061</v>
+        <v>2087.603199793935</v>
       </c>
       <c r="S5">
-        <v>0.1676656012874101</v>
+        <v>0.2598128315585262</v>
       </c>
       <c r="T5">
-        <v>0.1676656012874101</v>
+        <v>0.2598128315585263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>7.758911424846</v>
@@ -818,10 +818,10 @@
         <v>69.83020282361399</v>
       </c>
       <c r="S6">
-        <v>0.00245935622579978</v>
+        <v>0.008690723757129802</v>
       </c>
       <c r="T6">
-        <v>0.00245935622579978</v>
+        <v>0.008690723757129804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>250.798951230551</v>
@@ -880,10 +880,10 @@
         <v>2257.190561074959</v>
       </c>
       <c r="S7">
-        <v>0.07949619841744143</v>
+        <v>0.280918840849617</v>
       </c>
       <c r="T7">
-        <v>0.07949619841744145</v>
+        <v>0.280918840849617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>408.3679606660288</v>
+        <v>179.0745133811167</v>
       </c>
       <c r="R8">
-        <v>3675.311645994259</v>
+        <v>1611.67062043005</v>
       </c>
       <c r="S8">
-        <v>0.1294411331034226</v>
+        <v>0.2005806024224099</v>
       </c>
       <c r="T8">
-        <v>0.1294411331034226</v>
+        <v>0.20058060242241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
         <v>5.990031817913333</v>
@@ -1004,10 +1004,10 @@
         <v>53.91028636122</v>
       </c>
       <c r="S9">
-        <v>0.00189867124877203</v>
+        <v>0.006709409216762141</v>
       </c>
       <c r="T9">
-        <v>0.001898671248772031</v>
+        <v>0.006709409216762142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
         <v>193.6217099939522</v>
@@ -1066,10 +1066,10 @@
         <v>1742.59538994557</v>
       </c>
       <c r="S10">
-        <v>0.06137262456673517</v>
+        <v>0.216874855608232</v>
       </c>
       <c r="T10">
-        <v>0.06137262456673517</v>
+        <v>0.216874855608232</v>
       </c>
     </row>
   </sheetData>
